--- a/data/sector_pr.xlsx
+++ b/data/sector_pr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Energia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827487A4-6257-4D1C-B5D2-537BED40A231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5740C480-7724-4515-ACE5-BCF69F46DD41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,13 +505,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -673,9 +676,9 @@
         <v>26830.779005525015</v>
       </c>
       <c r="E6" s="2">
-        <v>378091.49144016969</v>
-      </c>
-      <c r="F6" s="2">
+        <v>378091.86347555893</v>
+      </c>
+      <c r="F6">
         <v>123661.77577379883</v>
       </c>
       <c r="G6">
@@ -1021,7 +1024,7 @@
         <v>28171.996286075271</v>
       </c>
       <c r="E18" s="2">
-        <v>354171.1623164026</v>
+        <v>354171.50838907313</v>
       </c>
       <c r="F18" s="2">
         <v>130120.21319885181</v>
@@ -1195,7 +1198,7 @@
         <v>25956.251103695409</v>
       </c>
       <c r="E24" s="2">
-        <v>350683.14054184273</v>
+        <v>350683.44765434955</v>
       </c>
       <c r="F24" s="2">
         <v>127951.94043923027</v>
@@ -1369,7 +1372,7 @@
         <v>24011.900848000918</v>
       </c>
       <c r="E30" s="2">
-        <v>361684.23305741593</v>
+        <v>361684.42839035933</v>
       </c>
       <c r="F30" s="2">
         <v>123840.94531637711</v>
@@ -1543,7 +1546,7 @@
         <v>23802.378326158894</v>
       </c>
       <c r="E36" s="2">
-        <v>344586.37633554853</v>
+        <v>344586.54493832408</v>
       </c>
       <c r="F36" s="2">
         <v>114685.67896076839</v>
@@ -1708,19 +1711,19 @@
         <v>12</v>
       </c>
       <c r="B42" s="2">
-        <v>1762.0252549510528</v>
+        <v>1918.3988340409351</v>
       </c>
       <c r="C42" s="2">
-        <v>15561.020389513491</v>
+        <v>16942.006527913905</v>
       </c>
       <c r="D42" s="2">
-        <v>20612.904306865144</v>
+        <v>22442.227475102762</v>
       </c>
       <c r="E42" s="2">
-        <v>341551.16689943994</v>
+        <v>371858.81673632929</v>
       </c>
       <c r="F42" s="2">
-        <v>110744.38534045068</v>
+        <v>120572.562235836</v>
       </c>
       <c r="G42">
         <v>2014</v>
@@ -1891,7 +1894,7 @@
         <v>21382.217055023226</v>
       </c>
       <c r="E48" s="2">
-        <v>376095.49826558318</v>
+        <v>376095.50883206091</v>
       </c>
       <c r="F48" s="2">
         <v>121040.12583074911</v>
@@ -2065,7 +2068,7 @@
         <v>23627.438530105374</v>
       </c>
       <c r="E54" s="2">
-        <v>366767.91381124925</v>
+        <v>366767.9169788835</v>
       </c>
       <c r="F54" s="2">
         <v>119625.40384895139</v>
@@ -2113,19 +2116,19 @@
       <c r="A56" t="s">
         <v>9</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>0.87346650000000003</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>428.53694800000005</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2">
         <v>1139.0222900000001</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <v>671.51555169999995</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="2">
         <v>6043.1862022000005</v>
       </c>
       <c r="G56">
@@ -2142,19 +2145,19 @@
       <c r="A57" t="s">
         <v>10</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
+      <c r="B57" s="2">
+        <v>0</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
         <v>60013.573559363394</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
         <v>0</v>
       </c>
       <c r="G57">
@@ -2171,19 +2174,19 @@
       <c r="A58" t="s">
         <v>26</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>1310.4284051879999</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>278.01973357200006</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <v>190959.10018498791</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>143.17250115749999</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="2">
         <v>32.746350234000005</v>
       </c>
       <c r="G58">
@@ -2200,19 +2203,19 @@
       <c r="A59" t="s">
         <v>11</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>5.2166399999999995E-2</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>280.33251259999997</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <v>840.8240174</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>15.250094799999999</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="2">
         <v>0</v>
       </c>
       <c r="G59">
@@ -2229,19 +2232,19 @@
       <c r="A60" t="s">
         <v>12</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>1791.6476247146959</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <v>17842.21637635323</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2">
         <v>38833.69558884755</v>
       </c>
-      <c r="E60">
-        <v>385884.79414768337</v>
-      </c>
-      <c r="F60">
+      <c r="E60" s="2">
+        <v>385884.80354058166</v>
+      </c>
+      <c r="F60" s="2">
         <v>129430.24895141067</v>
       </c>
       <c r="G60">
@@ -2258,19 +2261,19 @@
       <c r="A61" t="s">
         <v>13</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>121.08874999999999</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>30569.297499999997</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2">
         <v>1496.3174999999999</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <v>42240.355000000018</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="2">
         <v>39427.482499999998</v>
       </c>
       <c r="G61">
